--- a/Practical/Front End/data/report.xlsx
+++ b/Practical/Front End/data/report.xlsx
@@ -412,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="20.33203125" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="4" max="4"/>
@@ -452,6 +452,51 @@
           <t>Phone no.</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Event 1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E-1 Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ash-7896512034</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ash</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ash@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7896512034</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>chess</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
